--- a/biology/Médecine/John_H._Tilden/John_H._Tilden.xlsx
+++ b/biology/Médecine/John_H._Tilden/John_H._Tilden.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John H. Tilden, né le 21 septembre 1851 à Van Burenburg, Illinois (USA), décédé le 1er septembre 1940 à Denver, Colorado (USA), a défini le paradigme de la Toxémie.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce texte est un essai de traduction de la préface du livre de John H. Tilden intitulé Toxemia - The basic cause of disease.  (ISBN 0-914532-07-3)
 Cette préface est signée Frederic N. Gilbert. Elle précède une préface de l'éditeur, signée T.C.Fry, ainsi que la préface de l'auteur. 
@@ -549,7 +563,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Notices d'autorité : VIAF ISNI LCCN Pays-Bas Pologne Israël WorldCat 
 La Toxémie expliquée (sur Wikisource) - La vraie interprétation de la cause de la maladie - un antidote contre la peur, la frénésie et la folle course à la soi-disant guérison
